--- a/meanjs/app/controllers/xlsxs/courseMapping.xlsx
+++ b/meanjs/app/controllers/xlsxs/courseMapping.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -381,21 +381,6 @@
       <c r="B1" t="str">
         <v>Description</v>
       </c>
-      <c r="C1" t="str">
-        <v>COP3530</v>
-      </c>
-      <c r="D1" t="str">
-        <v>CIS4204</v>
-      </c>
-      <c r="E1" t="str">
-        <v>COP3502</v>
-      </c>
-      <c r="F1" t="str">
-        <v>COP3503</v>
-      </c>
-      <c r="G1" t="str">
-        <v>CEN3031</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -404,21 +389,6 @@
       <c r="B2" t="str">
         <v>a. an ability to apply knowledge of mathematics, science, and engineering</v>
       </c>
-      <c r="C2" t="str">
-        <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>1</v>
-      </c>
-      <c r="F2" t="str">
-        <v>1</v>
-      </c>
-      <c r="G2" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -427,21 +397,6 @@
       <c r="B3" t="str">
         <v>b. an ability to design and conduct experiments, as well as to analyze and interpret data</v>
       </c>
-      <c r="C3" t="str">
-        <v>1</v>
-      </c>
-      <c r="D3" t="str">
-        <v>1</v>
-      </c>
-      <c r="E3" t="str">
-        <v>1</v>
-      </c>
-      <c r="F3" t="str">
-        <v>1</v>
-      </c>
-      <c r="G3" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -450,21 +405,6 @@
       <c r="B4" t="str">
         <v>c. an ability to design a system, component, or process to meet desired needs within realistic constraints such as economic, environmental, social, political, ethical, health and safety,</v>
       </c>
-      <c r="C4" t="str">
-        <v>1</v>
-      </c>
-      <c r="D4" t="str">
-        <v>1</v>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -473,215 +413,44 @@
       <c r="B5" t="str">
         <v>d. an ability to function on multidisciplinary teams</v>
       </c>
-      <c r="C5" t="str">
-        <v>1</v>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v/>
-      </c>
-      <c r="F5" t="str">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>E</v>
+        <v/>
       </c>
       <c r="B6" t="str">
-        <v>e. an ability to identify, formulate, and solve engineering problems</v>
-      </c>
-      <c r="C6" t="str">
         <v/>
       </c>
-      <c r="D6" t="str">
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
         <v/>
       </c>
-      <c r="E6" t="str">
+      <c r="B9" t="str">
         <v/>
       </c>
-      <c r="F6" t="str">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-      <c r="B7" t="str">
-        <v/>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
+      <c r="C9" t="str">
+        <v>Outcomes</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v/>
+        <v>Course ID</v>
       </c>
       <c r="B10" t="str">
-        <v/>
+        <v>Course Name</v>
       </c>
       <c r="C10" t="str">
-        <v>Outcomes</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Course ID</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Course Name</v>
-      </c>
-      <c r="C11" t="str">
         <v>a</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D10" t="str">
         <v>b</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E10" t="str">
         <v>c</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F10" t="str">
         <v>d</v>
-      </c>
-      <c r="G11" t="str">
-        <v>e</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>COP3530</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Data Structures and Algorithms</v>
-      </c>
-      <c r="C12" t="str">
-        <v>X</v>
-      </c>
-      <c r="D12" t="str">
-        <v>X</v>
-      </c>
-      <c r="E12" t="str">
-        <v>X</v>
-      </c>
-      <c r="F12" t="str">
-        <v>X</v>
-      </c>
-      <c r="G12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>CIS4204</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Ethical Hacking and Penetration Testing</v>
-      </c>
-      <c r="C13" t="str">
-        <v>X</v>
-      </c>
-      <c r="D13" t="str">
-        <v>X</v>
-      </c>
-      <c r="E13" t="str">
-        <v>X</v>
-      </c>
-      <c r="F13" t="str">
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>COP3502</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Java Programming Fundamentals I</v>
-      </c>
-      <c r="C14" t="str">
-        <v>X</v>
-      </c>
-      <c r="D14" t="str">
-        <v>X</v>
-      </c>
-      <c r="E14" t="str">
-        <v/>
-      </c>
-      <c r="F14" t="str">
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>COP3503</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Java Programming Fundamentals II</v>
-      </c>
-      <c r="C15" t="str">
-        <v>X</v>
-      </c>
-      <c r="D15" t="str">
-        <v>X</v>
-      </c>
-      <c r="E15" t="str">
-        <v/>
-      </c>
-      <c r="F15" t="str">
-        <v>X</v>
-      </c>
-      <c r="G15" t="str">
-        <v>X</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>CEN3031</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Intro to Software Engineering</v>
-      </c>
-      <c r="C16" t="str">
-        <v>X</v>
-      </c>
-      <c r="D16" t="str">
-        <v>X</v>
-      </c>
-      <c r="E16" t="str">
-        <v/>
-      </c>
-      <c r="F16" t="str">
-        <v>X</v>
-      </c>
-      <c r="G16" t="str">
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/meanjs/app/controllers/xlsxs/courseMapping.xlsx
+++ b/meanjs/app/controllers/xlsxs/courseMapping.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -381,6 +381,21 @@
       <c r="B1" t="str">
         <v>Description</v>
       </c>
+      <c r="C1" t="str">
+        <v>COP3530</v>
+      </c>
+      <c r="D1" t="str">
+        <v>CIS4204</v>
+      </c>
+      <c r="E1" t="str">
+        <v>COP3502</v>
+      </c>
+      <c r="F1" t="str">
+        <v>COP3503</v>
+      </c>
+      <c r="G1" t="str">
+        <v>CEN3031</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -389,6 +404,21 @@
       <c r="B2" t="str">
         <v>a. an ability to apply knowledge of mathematics, science, and engineering</v>
       </c>
+      <c r="C2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -397,6 +427,21 @@
       <c r="B3" t="str">
         <v>b. an ability to design and conduct experiments, as well as to analyze and interpret data</v>
       </c>
+      <c r="C3" t="str">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -405,6 +450,21 @@
       <c r="B4" t="str">
         <v>c. an ability to design a system, component, or process to meet desired needs within realistic constraints such as economic, environmental, social, political, ethical, health and safety,</v>
       </c>
+      <c r="C4" t="str">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -413,6 +473,21 @@
       <c r="B5" t="str">
         <v>d. an ability to function on multidisciplinary teams</v>
       </c>
+      <c r="C5" t="str">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -420,6 +495,21 @@
       </c>
       <c r="B6" t="str">
         <v/>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -453,6 +543,106 @@
         <v>d</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>COP3530</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Data Structures and Algorithms</v>
+      </c>
+      <c r="C11" t="str">
+        <v>X</v>
+      </c>
+      <c r="D11" t="str">
+        <v>X</v>
+      </c>
+      <c r="E11" t="str">
+        <v>X</v>
+      </c>
+      <c r="F11" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>CIS4204</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Ethical Hacking and Penetration Testing</v>
+      </c>
+      <c r="C12" t="str">
+        <v>X</v>
+      </c>
+      <c r="D12" t="str">
+        <v>X</v>
+      </c>
+      <c r="E12" t="str">
+        <v>X</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>COP3502</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Java Programming Fundamentals I</v>
+      </c>
+      <c r="C13" t="str">
+        <v>X</v>
+      </c>
+      <c r="D13" t="str">
+        <v>X</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>COP3503</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Java Programming Fundamentals II</v>
+      </c>
+      <c r="C14" t="str">
+        <v>X</v>
+      </c>
+      <c r="D14" t="str">
+        <v>X</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>CEN3031</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Intro to Software Engineering</v>
+      </c>
+      <c r="C15" t="str">
+        <v>X</v>
+      </c>
+      <c r="D15" t="str">
+        <v>X</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>X</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>